--- a/resources/sys_company.xlsx
+++ b/resources/sys_company.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Financeiro\Projeto ERP\Código de Filiais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Clientes\brb\ecoagro\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B334300B-794B-4DFC-BC29-45E792077D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD202C70-2F45-4400-AE43-14615B5D74A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sys_company" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Database">sys_company!$A$1:$BY$186</definedName>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4017" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4933" uniqueCount="843">
   <si>
     <t>M0_CODIGO</t>
   </si>
@@ -2547,12 +2549,30 @@
   </si>
   <si>
     <t>0101ECOPAR</t>
+  </si>
+  <si>
+    <t>M0_NOVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ', '</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ');</t>
+  </si>
+  <si>
+    <t>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</t>
+  </si>
+  <si>
+    <t>01010000E5</t>
+  </si>
+  <si>
+    <t>01010000E7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2615,10 +2635,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2649,7 +2670,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2666,7 +2687,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2961,89 +2982,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BY186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C181" sqref="C181"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="63" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="71.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="71.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="10.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="9" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="55" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="13.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="11.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="55" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="10.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3276,7 +3297,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>76</v>
       </c>
@@ -3377,7 +3398,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
@@ -3475,7 +3496,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -3561,7 +3582,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>76</v>
       </c>
@@ -3647,7 +3668,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>76</v>
       </c>
@@ -3733,7 +3754,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
@@ -3819,7 +3840,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>76</v>
       </c>
@@ -3905,7 +3926,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
@@ -3991,7 +4012,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>76</v>
       </c>
@@ -4077,7 +4098,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>76</v>
       </c>
@@ -4163,7 +4184,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
@@ -4249,7 +4270,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -4335,7 +4356,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>76</v>
       </c>
@@ -4421,7 +4442,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>76</v>
       </c>
@@ -4507,7 +4528,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>76</v>
       </c>
@@ -4593,7 +4614,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>76</v>
       </c>
@@ -4679,7 +4700,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>76</v>
       </c>
@@ -4765,7 +4786,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>76</v>
       </c>
@@ -4851,7 +4872,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>76</v>
       </c>
@@ -4937,7 +4958,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>76</v>
       </c>
@@ -5023,7 +5044,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>76</v>
       </c>
@@ -5109,7 +5130,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>76</v>
       </c>
@@ -5195,7 +5216,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>76</v>
       </c>
@@ -5281,7 +5302,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>76</v>
       </c>
@@ -5367,7 +5388,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
@@ -5453,7 +5474,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
@@ -5539,7 +5560,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>76</v>
       </c>
@@ -5625,7 +5646,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
@@ -5711,7 +5732,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>76</v>
       </c>
@@ -5797,7 +5818,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>76</v>
       </c>
@@ -5883,7 +5904,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>76</v>
       </c>
@@ -5969,7 +5990,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
@@ -6055,7 +6076,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>76</v>
       </c>
@@ -6141,7 +6162,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>76</v>
       </c>
@@ -6227,7 +6248,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>76</v>
       </c>
@@ -6313,7 +6334,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
@@ -6399,7 +6420,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>76</v>
       </c>
@@ -6485,7 +6506,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -6571,7 +6592,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
@@ -6657,7 +6678,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>76</v>
       </c>
@@ -6743,7 +6764,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>76</v>
       </c>
@@ -6829,7 +6850,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>76</v>
       </c>
@@ -6915,7 +6936,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>76</v>
       </c>
@@ -7001,7 +7022,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>76</v>
       </c>
@@ -7087,7 +7108,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>76</v>
       </c>
@@ -7173,7 +7194,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>76</v>
       </c>
@@ -7259,7 +7280,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>76</v>
       </c>
@@ -7345,7 +7366,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>76</v>
       </c>
@@ -7431,7 +7452,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>76</v>
       </c>
@@ -7517,7 +7538,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>76</v>
       </c>
@@ -7603,7 +7624,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -7689,7 +7710,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>76</v>
       </c>
@@ -7775,7 +7796,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>76</v>
       </c>
@@ -7861,7 +7882,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>76</v>
       </c>
@@ -7947,7 +7968,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>76</v>
       </c>
@@ -8033,7 +8054,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>76</v>
       </c>
@@ -8119,7 +8140,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>76</v>
       </c>
@@ -8205,7 +8226,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>76</v>
       </c>
@@ -8291,7 +8312,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>76</v>
       </c>
@@ -8377,7 +8398,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>76</v>
       </c>
@@ -8463,7 +8484,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>76</v>
       </c>
@@ -8549,7 +8570,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>76</v>
       </c>
@@ -8635,7 +8656,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
@@ -8721,7 +8742,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>76</v>
       </c>
@@ -8807,7 +8828,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>76</v>
       </c>
@@ -8893,7 +8914,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>76</v>
       </c>
@@ -8979,7 +9000,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>76</v>
       </c>
@@ -9065,7 +9086,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>76</v>
       </c>
@@ -9151,7 +9172,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>76</v>
       </c>
@@ -9237,7 +9258,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>76</v>
       </c>
@@ -9323,7 +9344,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
@@ -9409,7 +9430,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>76</v>
       </c>
@@ -9495,7 +9516,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
@@ -9581,7 +9602,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
@@ -9667,7 +9688,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
@@ -9753,7 +9774,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
@@ -9839,7 +9860,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -9925,7 +9946,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>76</v>
       </c>
@@ -10011,15 +10032,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>540</v>
+      <c r="C80" s="3" t="s">
+        <v>841</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>715</v>
@@ -10097,7 +10118,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>76</v>
       </c>
@@ -10183,15 +10204,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>542</v>
+      <c r="C82" s="3" t="s">
+        <v>842</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>717</v>
@@ -10269,7 +10290,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>76</v>
       </c>
@@ -10355,7 +10376,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>76</v>
       </c>
@@ -10441,7 +10462,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>76</v>
       </c>
@@ -10527,7 +10548,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>76</v>
       </c>
@@ -10613,7 +10634,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>76</v>
       </c>
@@ -10699,7 +10720,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>76</v>
       </c>
@@ -10785,7 +10806,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>76</v>
       </c>
@@ -10871,7 +10892,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>76</v>
       </c>
@@ -10957,7 +10978,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>76</v>
       </c>
@@ -11043,7 +11064,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>76</v>
       </c>
@@ -11129,7 +11150,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>76</v>
       </c>
@@ -11215,7 +11236,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>76</v>
       </c>
@@ -11301,7 +11322,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>76</v>
       </c>
@@ -11387,7 +11408,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>76</v>
       </c>
@@ -11473,7 +11494,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>76</v>
       </c>
@@ -11559,7 +11580,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>76</v>
       </c>
@@ -11645,7 +11666,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>76</v>
       </c>
@@ -11731,7 +11752,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="100" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>76</v>
       </c>
@@ -11817,7 +11838,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="101" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>76</v>
       </c>
@@ -11903,7 +11924,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="102" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>76</v>
       </c>
@@ -11989,7 +12010,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="103" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>76</v>
       </c>
@@ -12075,7 +12096,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="104" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>76</v>
       </c>
@@ -12161,7 +12182,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="105" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>76</v>
       </c>
@@ -12247,7 +12268,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="106" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>76</v>
       </c>
@@ -12333,7 +12354,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="107" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>76</v>
       </c>
@@ -12419,7 +12440,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="108" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>76</v>
       </c>
@@ -12505,7 +12526,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="109" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>76</v>
       </c>
@@ -12591,7 +12612,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="110" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>76</v>
       </c>
@@ -12677,7 +12698,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="111" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>76</v>
       </c>
@@ -12763,7 +12784,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="112" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>76</v>
       </c>
@@ -12849,7 +12870,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>76</v>
       </c>
@@ -12935,7 +12956,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="114" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>76</v>
       </c>
@@ -13021,7 +13042,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="115" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>76</v>
       </c>
@@ -13107,7 +13128,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="116" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>76</v>
       </c>
@@ -13193,7 +13214,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="117" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>76</v>
       </c>
@@ -13279,7 +13300,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>76</v>
       </c>
@@ -13362,7 +13383,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>76</v>
       </c>
@@ -13448,7 +13469,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>76</v>
       </c>
@@ -13534,7 +13555,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="121" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>76</v>
       </c>
@@ -13620,7 +13641,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="122" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>76</v>
       </c>
@@ -13706,7 +13727,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="123" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>76</v>
       </c>
@@ -13792,7 +13813,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="124" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>76</v>
       </c>
@@ -13878,7 +13899,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="125" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>76</v>
       </c>
@@ -13964,7 +13985,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="126" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>76</v>
       </c>
@@ -14050,7 +14071,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="127" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>76</v>
       </c>
@@ -14136,7 +14157,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="128" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>76</v>
       </c>
@@ -14222,7 +14243,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="129" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>76</v>
       </c>
@@ -14308,7 +14329,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="130" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>76</v>
       </c>
@@ -14394,7 +14415,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="131" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>76</v>
       </c>
@@ -14480,7 +14501,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="132" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>76</v>
       </c>
@@ -14566,7 +14587,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="133" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>76</v>
       </c>
@@ -14652,7 +14673,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="134" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>76</v>
       </c>
@@ -14738,7 +14759,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="135" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>76</v>
       </c>
@@ -14824,7 +14845,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="136" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>76</v>
       </c>
@@ -14910,7 +14931,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="137" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>76</v>
       </c>
@@ -14996,7 +15017,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="138" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>76</v>
       </c>
@@ -15082,7 +15103,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="139" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>76</v>
       </c>
@@ -15168,7 +15189,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="140" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>76</v>
       </c>
@@ -15254,7 +15275,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>76</v>
       </c>
@@ -15340,7 +15361,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="142" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>76</v>
       </c>
@@ -15426,7 +15447,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="143" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>76</v>
       </c>
@@ -15512,7 +15533,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="144" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>76</v>
       </c>
@@ -15598,7 +15619,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="145" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>76</v>
       </c>
@@ -15684,7 +15705,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="146" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>76</v>
       </c>
@@ -15770,7 +15791,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="147" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>76</v>
       </c>
@@ -15856,7 +15877,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="148" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>76</v>
       </c>
@@ -15942,7 +15963,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="149" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>76</v>
       </c>
@@ -16028,7 +16049,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="150" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>76</v>
       </c>
@@ -16114,7 +16135,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="151" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>76</v>
       </c>
@@ -16200,7 +16221,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="152" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>76</v>
       </c>
@@ -16286,7 +16307,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="153" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>76</v>
       </c>
@@ -16372,7 +16393,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="154" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>76</v>
       </c>
@@ -16458,7 +16479,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="155" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>76</v>
       </c>
@@ -16544,7 +16565,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="156" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>76</v>
       </c>
@@ -16630,7 +16651,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="157" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>76</v>
       </c>
@@ -16716,7 +16737,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="158" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>76</v>
       </c>
@@ -16802,7 +16823,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="159" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>76</v>
       </c>
@@ -16888,7 +16909,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="160" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>76</v>
       </c>
@@ -16974,7 +16995,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="161" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>76</v>
       </c>
@@ -17060,7 +17081,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="162" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>76</v>
       </c>
@@ -17146,7 +17167,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="163" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>76</v>
       </c>
@@ -17160,7 +17181,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="164" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>76</v>
       </c>
@@ -17174,7 +17195,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="165" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>76</v>
       </c>
@@ -17188,7 +17209,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="166" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>76</v>
       </c>
@@ -17202,7 +17223,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="167" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>76</v>
       </c>
@@ -17216,7 +17237,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="168" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>76</v>
       </c>
@@ -17230,7 +17251,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="169" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>76</v>
       </c>
@@ -17244,7 +17265,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="170" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>76</v>
       </c>
@@ -17258,7 +17279,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="171" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>76</v>
       </c>
@@ -17272,7 +17293,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="172" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>76</v>
       </c>
@@ -17286,7 +17307,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="173" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>76</v>
       </c>
@@ -17300,7 +17321,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="174" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>76</v>
       </c>
@@ -17314,7 +17335,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="175" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>76</v>
       </c>
@@ -17328,7 +17349,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="176" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>76</v>
       </c>
@@ -17342,7 +17363,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="177" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>76</v>
       </c>
@@ -17356,7 +17377,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="178" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>76</v>
       </c>
@@ -17370,7 +17391,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="179" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>76</v>
       </c>
@@ -17384,7 +17405,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="180" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>76</v>
       </c>
@@ -17422,7 +17443,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="181" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>418</v>
       </c>
@@ -17517,7 +17538,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="182" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>427</v>
       </c>
@@ -17606,7 +17627,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="183" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>437</v>
       </c>
@@ -17701,7 +17722,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="184" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>443</v>
       </c>
@@ -17796,7 +17817,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="185" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>449</v>
       </c>
@@ -17891,7 +17912,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="186" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>456</v>
       </c>
@@ -17991,4 +18012,5719 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7FAC90-42FA-46CD-9751-F40C1291040A}">
+  <dimension ref="A1:I184"/>
+  <sheetViews>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D2" t="s">
+        <v>840</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2" t="str">
+        <f>A2</f>
+        <v>0101000001</v>
+      </c>
+      <c r="G2" t="s">
+        <v>838</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>B2</f>
+        <v>0101ECOSEC</v>
+      </c>
+      <c r="I2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D3" t="str">
+        <f>D2</f>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f t="shared" ref="F3:F66" si="0">A3</f>
+        <v>0101000002</v>
+      </c>
+      <c r="G3" t="s">
+        <v>838</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f t="shared" ref="H3:H66" si="1">B3</f>
+        <v>01010S5657</v>
+      </c>
+      <c r="I3" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D67" si="2">D3</f>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000003</v>
+      </c>
+      <c r="G4" t="s">
+        <v>838</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>01010S6061</v>
+      </c>
+      <c r="I4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000004</v>
+      </c>
+      <c r="G5" t="s">
+        <v>838</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>01010S6667</v>
+      </c>
+      <c r="I5" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000005</v>
+      </c>
+      <c r="G6" t="s">
+        <v>838</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000S65</v>
+      </c>
+      <c r="I6" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000006</v>
+      </c>
+      <c r="G7" t="s">
+        <v>838</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>01010S8081</v>
+      </c>
+      <c r="I7" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000007</v>
+      </c>
+      <c r="G8" t="s">
+        <v>838</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>01010S8990</v>
+      </c>
+      <c r="I8" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000008</v>
+      </c>
+      <c r="G9" t="s">
+        <v>838</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000S93</v>
+      </c>
+      <c r="I9" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000009</v>
+      </c>
+      <c r="G10" t="s">
+        <v>838</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000S94</v>
+      </c>
+      <c r="I10" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000010</v>
+      </c>
+      <c r="G11" t="s">
+        <v>838</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>010100S135</v>
+      </c>
+      <c r="I11" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000011</v>
+      </c>
+      <c r="G12" t="s">
+        <v>838</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>010100S137</v>
+      </c>
+      <c r="I12" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000012</v>
+      </c>
+      <c r="G13" t="s">
+        <v>838</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000013</v>
+      </c>
+      <c r="G14" t="s">
+        <v>838</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000014</v>
+      </c>
+      <c r="G15" t="s">
+        <v>838</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E21</v>
+      </c>
+      <c r="I15" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000015</v>
+      </c>
+      <c r="G16" t="s">
+        <v>838</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000016</v>
+      </c>
+      <c r="G17" t="s">
+        <v>838</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000017</v>
+      </c>
+      <c r="G18" t="s">
+        <v>838</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000018</v>
+      </c>
+      <c r="G19" t="s">
+        <v>838</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E37</v>
+      </c>
+      <c r="I19" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000019</v>
+      </c>
+      <c r="G20" t="s">
+        <v>838</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E40</v>
+      </c>
+      <c r="I20" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000020</v>
+      </c>
+      <c r="G21" t="s">
+        <v>838</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E42</v>
+      </c>
+      <c r="I21" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000021</v>
+      </c>
+      <c r="G22" t="s">
+        <v>838</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E53</v>
+      </c>
+      <c r="I22" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000022</v>
+      </c>
+      <c r="G23" t="s">
+        <v>838</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E59</v>
+      </c>
+      <c r="I23" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000023</v>
+      </c>
+      <c r="G24" t="s">
+        <v>838</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E61</v>
+      </c>
+      <c r="I24" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000024</v>
+      </c>
+      <c r="G25" t="s">
+        <v>838</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E82</v>
+      </c>
+      <c r="I25" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000025</v>
+      </c>
+      <c r="G26" t="s">
+        <v>838</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E86</v>
+      </c>
+      <c r="I26" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000026</v>
+      </c>
+      <c r="G27" t="s">
+        <v>838</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E88</v>
+      </c>
+      <c r="I27" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000027</v>
+      </c>
+      <c r="G28" t="s">
+        <v>838</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E91</v>
+      </c>
+      <c r="I28" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000028</v>
+      </c>
+      <c r="G29" t="s">
+        <v>838</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>010100E101</v>
+      </c>
+      <c r="I29" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000029</v>
+      </c>
+      <c r="G30" t="s">
+        <v>838</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>010100E103</v>
+      </c>
+      <c r="I30" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000030</v>
+      </c>
+      <c r="G31" t="s">
+        <v>838</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>010100E104</v>
+      </c>
+      <c r="I31" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000031</v>
+      </c>
+      <c r="G32" t="s">
+        <v>838</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>010100E107</v>
+      </c>
+      <c r="I32" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000032</v>
+      </c>
+      <c r="G33" t="s">
+        <v>838</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>010100E108</v>
+      </c>
+      <c r="I33" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000033</v>
+      </c>
+      <c r="G34" t="s">
+        <v>838</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>010100E114</v>
+      </c>
+      <c r="I34" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000034</v>
+      </c>
+      <c r="G35" t="s">
+        <v>838</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>010100E119</v>
+      </c>
+      <c r="I35" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000035</v>
+      </c>
+      <c r="G36" t="s">
+        <v>838</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>010100E130</v>
+      </c>
+      <c r="I36" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000036</v>
+      </c>
+      <c r="G37" t="s">
+        <v>838</v>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000S88</v>
+      </c>
+      <c r="I37" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000037</v>
+      </c>
+      <c r="G38" t="s">
+        <v>838</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>010S102103</v>
+      </c>
+      <c r="I38" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000038</v>
+      </c>
+      <c r="G39" t="s">
+        <v>838</v>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>010100S104</v>
+      </c>
+      <c r="I39" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000039</v>
+      </c>
+      <c r="G40" t="s">
+        <v>838</v>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>010100S105</v>
+      </c>
+      <c r="I40" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000040</v>
+      </c>
+      <c r="G41" t="s">
+        <v>838</v>
+      </c>
+      <c r="H41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>010S109110</v>
+      </c>
+      <c r="I41" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000041</v>
+      </c>
+      <c r="G42" t="s">
+        <v>838</v>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>010100S111</v>
+      </c>
+      <c r="I42" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000042</v>
+      </c>
+      <c r="G43" t="s">
+        <v>838</v>
+      </c>
+      <c r="H43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>010100S112</v>
+      </c>
+      <c r="I43" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000043</v>
+      </c>
+      <c r="G44" t="s">
+        <v>838</v>
+      </c>
+      <c r="H44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>010100S114</v>
+      </c>
+      <c r="I44" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000044</v>
+      </c>
+      <c r="G45" t="s">
+        <v>838</v>
+      </c>
+      <c r="H45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>010100S115</v>
+      </c>
+      <c r="I45" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000045</v>
+      </c>
+      <c r="G46" t="s">
+        <v>838</v>
+      </c>
+      <c r="H46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>010S124125</v>
+      </c>
+      <c r="I46" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000046</v>
+      </c>
+      <c r="G47" t="s">
+        <v>838</v>
+      </c>
+      <c r="H47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>010100S136</v>
+      </c>
+      <c r="I47" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000047</v>
+      </c>
+      <c r="G48" t="s">
+        <v>838</v>
+      </c>
+      <c r="H48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>010100S144</v>
+      </c>
+      <c r="I48" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000048</v>
+      </c>
+      <c r="G49" t="s">
+        <v>838</v>
+      </c>
+      <c r="H49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>010100S154</v>
+      </c>
+      <c r="I49" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000049</v>
+      </c>
+      <c r="G50" t="s">
+        <v>838</v>
+      </c>
+      <c r="H50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>010S163164</v>
+      </c>
+      <c r="I50" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000050</v>
+      </c>
+      <c r="G51" t="s">
+        <v>838</v>
+      </c>
+      <c r="H51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>01010000E2</v>
+      </c>
+      <c r="I51" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000051</v>
+      </c>
+      <c r="G52" t="s">
+        <v>838</v>
+      </c>
+      <c r="H52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000052</v>
+      </c>
+      <c r="G53" t="s">
+        <v>838</v>
+      </c>
+      <c r="H53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E23</v>
+      </c>
+      <c r="I53" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000053</v>
+      </c>
+      <c r="G54" t="s">
+        <v>838</v>
+      </c>
+      <c r="H54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E24</v>
+      </c>
+      <c r="I54" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000054</v>
+      </c>
+      <c r="G55" t="s">
+        <v>838</v>
+      </c>
+      <c r="H55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E25</v>
+      </c>
+      <c r="I55" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000055</v>
+      </c>
+      <c r="G56" t="s">
+        <v>838</v>
+      </c>
+      <c r="H56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E26</v>
+      </c>
+      <c r="I56" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000056</v>
+      </c>
+      <c r="G57" t="s">
+        <v>838</v>
+      </c>
+      <c r="H57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E36</v>
+      </c>
+      <c r="I57" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000057</v>
+      </c>
+      <c r="G58" t="s">
+        <v>838</v>
+      </c>
+      <c r="H58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E48</v>
+      </c>
+      <c r="I58" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000058</v>
+      </c>
+      <c r="G59" t="s">
+        <v>838</v>
+      </c>
+      <c r="H59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E49</v>
+      </c>
+      <c r="I59" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000059</v>
+      </c>
+      <c r="G60" t="s">
+        <v>838</v>
+      </c>
+      <c r="H60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E51</v>
+      </c>
+      <c r="I60" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000060</v>
+      </c>
+      <c r="G61" t="s">
+        <v>838</v>
+      </c>
+      <c r="H61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E54</v>
+      </c>
+      <c r="I61" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000061</v>
+      </c>
+      <c r="G62" t="s">
+        <v>838</v>
+      </c>
+      <c r="H62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E65</v>
+      </c>
+      <c r="I62" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000062</v>
+      </c>
+      <c r="G63" t="s">
+        <v>838</v>
+      </c>
+      <c r="H63" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E71</v>
+      </c>
+      <c r="I63" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000063</v>
+      </c>
+      <c r="G64" t="s">
+        <v>838</v>
+      </c>
+      <c r="H64" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E73</v>
+      </c>
+      <c r="I64" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000064</v>
+      </c>
+      <c r="G65" t="s">
+        <v>838</v>
+      </c>
+      <c r="H65" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E75</v>
+      </c>
+      <c r="I65" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000065</v>
+      </c>
+      <c r="G66" t="s">
+        <v>838</v>
+      </c>
+      <c r="H66" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0101000E78</v>
+      </c>
+      <c r="I66" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F67" s="2" t="str">
+        <f t="shared" ref="F67:F130" si="3">A67</f>
+        <v>0101000066</v>
+      </c>
+      <c r="G67" t="s">
+        <v>838</v>
+      </c>
+      <c r="H67" s="1" t="str">
+        <f t="shared" ref="H67:H130" si="4">B67</f>
+        <v>0101000E84</v>
+      </c>
+      <c r="I67" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" ref="D68:D131" si="5">D67</f>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F68" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000067</v>
+      </c>
+      <c r="G68" t="s">
+        <v>838</v>
+      </c>
+      <c r="H68" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0101000E89</v>
+      </c>
+      <c r="I68" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F69" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000068</v>
+      </c>
+      <c r="G69" t="s">
+        <v>838</v>
+      </c>
+      <c r="H69" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0101000E95</v>
+      </c>
+      <c r="I69" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F70" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000069</v>
+      </c>
+      <c r="G70" t="s">
+        <v>838</v>
+      </c>
+      <c r="H70" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010100E100</v>
+      </c>
+      <c r="I70" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F71" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000070</v>
+      </c>
+      <c r="G71" t="s">
+        <v>838</v>
+      </c>
+      <c r="H71" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010100E102</v>
+      </c>
+      <c r="I71" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F72" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000071</v>
+      </c>
+      <c r="G72" t="s">
+        <v>838</v>
+      </c>
+      <c r="H72" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010100E110</v>
+      </c>
+      <c r="I72" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F73" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000072</v>
+      </c>
+      <c r="G73" t="s">
+        <v>838</v>
+      </c>
+      <c r="H73" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010100E116</v>
+      </c>
+      <c r="I73" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F74" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000073</v>
+      </c>
+      <c r="G74" t="s">
+        <v>838</v>
+      </c>
+      <c r="H74" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010100E117</v>
+      </c>
+      <c r="I74" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F75" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000074</v>
+      </c>
+      <c r="G75" t="s">
+        <v>838</v>
+      </c>
+      <c r="H75" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010100S145</v>
+      </c>
+      <c r="I75" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F76" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000075</v>
+      </c>
+      <c r="G76" t="s">
+        <v>838</v>
+      </c>
+      <c r="H76" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010100S168</v>
+      </c>
+      <c r="I76" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F77" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000076</v>
+      </c>
+      <c r="G77" t="s">
+        <v>838</v>
+      </c>
+      <c r="H77" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010100S169</v>
+      </c>
+      <c r="I77" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F78" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000077</v>
+      </c>
+      <c r="G78" t="s">
+        <v>838</v>
+      </c>
+      <c r="H78" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010100S176</v>
+      </c>
+      <c r="I78" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F79" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000078</v>
+      </c>
+      <c r="G79" t="s">
+        <v>838</v>
+      </c>
+      <c r="H79" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>01010000E4</v>
+      </c>
+      <c r="I79" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F80" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000079</v>
+      </c>
+      <c r="G80" t="s">
+        <v>838</v>
+      </c>
+      <c r="H80" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>01010000E5</v>
+      </c>
+      <c r="I80" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F81" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000080</v>
+      </c>
+      <c r="G81" t="s">
+        <v>838</v>
+      </c>
+      <c r="H81" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>01010000E6</v>
+      </c>
+      <c r="I81" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F82" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000081</v>
+      </c>
+      <c r="G82" t="s">
+        <v>838</v>
+      </c>
+      <c r="H82" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>01010000E7</v>
+      </c>
+      <c r="I82" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F83" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000082</v>
+      </c>
+      <c r="G83" t="s">
+        <v>838</v>
+      </c>
+      <c r="H83" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>01010000E9</v>
+      </c>
+      <c r="I83" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F84" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000083</v>
+      </c>
+      <c r="G84" t="s">
+        <v>838</v>
+      </c>
+      <c r="H84" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0101000E11</v>
+      </c>
+      <c r="I84" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F85" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000084</v>
+      </c>
+      <c r="G85" t="s">
+        <v>838</v>
+      </c>
+      <c r="H85" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0101000E13</v>
+      </c>
+      <c r="I85" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F86" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000085</v>
+      </c>
+      <c r="G86" t="s">
+        <v>838</v>
+      </c>
+      <c r="H86" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0101000E14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F87" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000086</v>
+      </c>
+      <c r="G87" t="s">
+        <v>838</v>
+      </c>
+      <c r="H87" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0101000E17</v>
+      </c>
+      <c r="I87" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F88" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000087</v>
+      </c>
+      <c r="G88" t="s">
+        <v>838</v>
+      </c>
+      <c r="H88" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0101000E30</v>
+      </c>
+      <c r="I88" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F89" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000088</v>
+      </c>
+      <c r="G89" t="s">
+        <v>838</v>
+      </c>
+      <c r="H89" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0101000E31</v>
+      </c>
+      <c r="I89" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F90" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000089</v>
+      </c>
+      <c r="G90" t="s">
+        <v>838</v>
+      </c>
+      <c r="H90" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0101000E38</v>
+      </c>
+      <c r="I90" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F91" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000090</v>
+      </c>
+      <c r="G91" t="s">
+        <v>838</v>
+      </c>
+      <c r="H91" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0101000E39</v>
+      </c>
+      <c r="I91" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F92" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000091</v>
+      </c>
+      <c r="G92" t="s">
+        <v>838</v>
+      </c>
+      <c r="H92" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0101000E45</v>
+      </c>
+      <c r="I92" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F93" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000092</v>
+      </c>
+      <c r="G93" t="s">
+        <v>838</v>
+      </c>
+      <c r="H93" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0101000E52</v>
+      </c>
+      <c r="I93" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F94" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000093</v>
+      </c>
+      <c r="G94" t="s">
+        <v>838</v>
+      </c>
+      <c r="H94" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0101000E58</v>
+      </c>
+      <c r="I94" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F95" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000094</v>
+      </c>
+      <c r="G95" t="s">
+        <v>838</v>
+      </c>
+      <c r="H95" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0101000E60</v>
+      </c>
+      <c r="I95" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F96" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000095</v>
+      </c>
+      <c r="G96" t="s">
+        <v>838</v>
+      </c>
+      <c r="H96" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0101000E68</v>
+      </c>
+      <c r="I96" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F97" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000096</v>
+      </c>
+      <c r="G97" t="s">
+        <v>838</v>
+      </c>
+      <c r="H97" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0101000E69</v>
+      </c>
+      <c r="I97" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F98" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000097</v>
+      </c>
+      <c r="G98" t="s">
+        <v>838</v>
+      </c>
+      <c r="H98" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0101000E70</v>
+      </c>
+      <c r="I98" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F99" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000098</v>
+      </c>
+      <c r="G99" t="s">
+        <v>838</v>
+      </c>
+      <c r="H99" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0101000E72</v>
+      </c>
+      <c r="I99" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F100" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000099</v>
+      </c>
+      <c r="G100" t="s">
+        <v>838</v>
+      </c>
+      <c r="H100" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0101000E74</v>
+      </c>
+      <c r="I100" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F101" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000100</v>
+      </c>
+      <c r="G101" t="s">
+        <v>838</v>
+      </c>
+      <c r="H101" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0101000E81</v>
+      </c>
+      <c r="I101" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F102" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000101</v>
+      </c>
+      <c r="G102" t="s">
+        <v>838</v>
+      </c>
+      <c r="H102" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0101000E85</v>
+      </c>
+      <c r="I102" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F103" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000102</v>
+      </c>
+      <c r="G103" t="s">
+        <v>838</v>
+      </c>
+      <c r="H103" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0101000E87</v>
+      </c>
+      <c r="I103" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F104" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000103</v>
+      </c>
+      <c r="G104" t="s">
+        <v>838</v>
+      </c>
+      <c r="H104" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0101000E90</v>
+      </c>
+      <c r="I104" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F105" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000104</v>
+      </c>
+      <c r="G105" t="s">
+        <v>838</v>
+      </c>
+      <c r="H105" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0101000E92</v>
+      </c>
+      <c r="I105" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F106" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000105</v>
+      </c>
+      <c r="G106" t="s">
+        <v>838</v>
+      </c>
+      <c r="H106" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0101000E94</v>
+      </c>
+      <c r="I106" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F107" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000106</v>
+      </c>
+      <c r="G107" t="s">
+        <v>838</v>
+      </c>
+      <c r="H107" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0101000E98</v>
+      </c>
+      <c r="I107" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F108" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000107</v>
+      </c>
+      <c r="G108" t="s">
+        <v>838</v>
+      </c>
+      <c r="H108" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010100E115</v>
+      </c>
+      <c r="I108" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F109" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000108</v>
+      </c>
+      <c r="G109" t="s">
+        <v>838</v>
+      </c>
+      <c r="H109" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010100E105</v>
+      </c>
+      <c r="I109" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F110" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000109</v>
+      </c>
+      <c r="G110" t="s">
+        <v>838</v>
+      </c>
+      <c r="H110" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>S173174175</v>
+      </c>
+      <c r="I110" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F111" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000110</v>
+      </c>
+      <c r="G111" t="s">
+        <v>838</v>
+      </c>
+      <c r="H111" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0101000E76</v>
+      </c>
+      <c r="I111" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F112" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000111</v>
+      </c>
+      <c r="G112" t="s">
+        <v>838</v>
+      </c>
+      <c r="H112" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010100E111</v>
+      </c>
+      <c r="I112" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F113" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000112</v>
+      </c>
+      <c r="G113" t="s">
+        <v>838</v>
+      </c>
+      <c r="H113" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010100E113</v>
+      </c>
+      <c r="I113" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F114" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000113</v>
+      </c>
+      <c r="G114" t="s">
+        <v>838</v>
+      </c>
+      <c r="H114" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010100E118</v>
+      </c>
+      <c r="I114" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F115" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000114</v>
+      </c>
+      <c r="G115" t="s">
+        <v>838</v>
+      </c>
+      <c r="H115" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010100E120</v>
+      </c>
+      <c r="I115" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F116" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000115</v>
+      </c>
+      <c r="G116" t="s">
+        <v>838</v>
+      </c>
+      <c r="H116" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010100E121</v>
+      </c>
+      <c r="I116" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F117" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000116</v>
+      </c>
+      <c r="G117" t="s">
+        <v>838</v>
+      </c>
+      <c r="H117" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010100E122</v>
+      </c>
+      <c r="I117" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F118" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000118</v>
+      </c>
+      <c r="G118" t="s">
+        <v>838</v>
+      </c>
+      <c r="H118" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010100E127</v>
+      </c>
+      <c r="I118" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F119" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000119</v>
+      </c>
+      <c r="G119" t="s">
+        <v>838</v>
+      </c>
+      <c r="H119" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010100E129</v>
+      </c>
+      <c r="I119" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F120" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000120</v>
+      </c>
+      <c r="G120" t="s">
+        <v>838</v>
+      </c>
+      <c r="H120" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010100E134</v>
+      </c>
+      <c r="I120" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F121" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000121</v>
+      </c>
+      <c r="G121" t="s">
+        <v>838</v>
+      </c>
+      <c r="H121" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010100E136</v>
+      </c>
+      <c r="I121" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F122" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000122</v>
+      </c>
+      <c r="G122" t="s">
+        <v>838</v>
+      </c>
+      <c r="H122" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010100E142</v>
+      </c>
+      <c r="I122" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000123</v>
+      </c>
+      <c r="G123" t="s">
+        <v>838</v>
+      </c>
+      <c r="H123" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010100E145</v>
+      </c>
+      <c r="I123" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F124" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000124</v>
+      </c>
+      <c r="G124" t="s">
+        <v>838</v>
+      </c>
+      <c r="H124" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>01010S5455</v>
+      </c>
+      <c r="I124" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F125" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000125</v>
+      </c>
+      <c r="G125" t="s">
+        <v>838</v>
+      </c>
+      <c r="H125" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010100E148</v>
+      </c>
+      <c r="I125" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F126" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000126</v>
+      </c>
+      <c r="G126" t="s">
+        <v>838</v>
+      </c>
+      <c r="H126" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010S171172</v>
+      </c>
+      <c r="I126" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F127" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000127</v>
+      </c>
+      <c r="G127" t="s">
+        <v>838</v>
+      </c>
+      <c r="H127" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010100E139</v>
+      </c>
+      <c r="I127" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F128" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000128</v>
+      </c>
+      <c r="G128" t="s">
+        <v>838</v>
+      </c>
+      <c r="H128" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010100E131</v>
+      </c>
+      <c r="I128" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F129" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000129</v>
+      </c>
+      <c r="G129" t="s">
+        <v>838</v>
+      </c>
+      <c r="H129" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010100E125</v>
+      </c>
+      <c r="I129" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F130" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0101000130</v>
+      </c>
+      <c r="G130" t="s">
+        <v>838</v>
+      </c>
+      <c r="H130" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>010100E123</v>
+      </c>
+      <c r="I130" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F131" s="2" t="str">
+        <f t="shared" ref="F131:F184" si="6">A131</f>
+        <v>0101000131</v>
+      </c>
+      <c r="G131" t="s">
+        <v>838</v>
+      </c>
+      <c r="H131" s="1" t="str">
+        <f t="shared" ref="H131:H184" si="7">B131</f>
+        <v>010100E153</v>
+      </c>
+      <c r="I131" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D132" t="str">
+        <f t="shared" ref="D132:D184" si="8">D131</f>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F132" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000132</v>
+      </c>
+      <c r="G132" t="s">
+        <v>838</v>
+      </c>
+      <c r="H132" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E128</v>
+      </c>
+      <c r="I132" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F133" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000133</v>
+      </c>
+      <c r="G133" t="s">
+        <v>838</v>
+      </c>
+      <c r="H133" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E137</v>
+      </c>
+      <c r="I133" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F134" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000134</v>
+      </c>
+      <c r="G134" t="s">
+        <v>838</v>
+      </c>
+      <c r="H134" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E138</v>
+      </c>
+      <c r="I134" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F135" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000135</v>
+      </c>
+      <c r="G135" t="s">
+        <v>838</v>
+      </c>
+      <c r="H135" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E147</v>
+      </c>
+      <c r="I135" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F136" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000136</v>
+      </c>
+      <c r="G136" t="s">
+        <v>838</v>
+      </c>
+      <c r="H136" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E140</v>
+      </c>
+      <c r="I136" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F137" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000137</v>
+      </c>
+      <c r="G137" t="s">
+        <v>838</v>
+      </c>
+      <c r="H137" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E141</v>
+      </c>
+      <c r="I137" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F138" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000138</v>
+      </c>
+      <c r="G138" t="s">
+        <v>838</v>
+      </c>
+      <c r="H138" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E161</v>
+      </c>
+      <c r="I138" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F139" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000139</v>
+      </c>
+      <c r="G139" t="s">
+        <v>838</v>
+      </c>
+      <c r="H139" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E106</v>
+      </c>
+      <c r="I139" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F140" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000140</v>
+      </c>
+      <c r="G140" t="s">
+        <v>838</v>
+      </c>
+      <c r="H140" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E155</v>
+      </c>
+      <c r="I140" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F141" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000141</v>
+      </c>
+      <c r="G141" t="s">
+        <v>838</v>
+      </c>
+      <c r="H141" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E166</v>
+      </c>
+      <c r="I141" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F142" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000142</v>
+      </c>
+      <c r="G142" t="s">
+        <v>838</v>
+      </c>
+      <c r="H142" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E135</v>
+      </c>
+      <c r="I142" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D143" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F143" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000143</v>
+      </c>
+      <c r="G143" t="s">
+        <v>838</v>
+      </c>
+      <c r="H143" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E150</v>
+      </c>
+      <c r="I143" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F144" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000144</v>
+      </c>
+      <c r="G144" t="s">
+        <v>838</v>
+      </c>
+      <c r="H144" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E160</v>
+      </c>
+      <c r="I144" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F145" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000145</v>
+      </c>
+      <c r="G145" t="s">
+        <v>838</v>
+      </c>
+      <c r="H145" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E163</v>
+      </c>
+      <c r="I145" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F146" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000146</v>
+      </c>
+      <c r="G146" t="s">
+        <v>838</v>
+      </c>
+      <c r="H146" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E167</v>
+      </c>
+      <c r="I146" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D147" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F147" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000147</v>
+      </c>
+      <c r="G147" t="s">
+        <v>838</v>
+      </c>
+      <c r="H147" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E168</v>
+      </c>
+      <c r="I147" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D148" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F148" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000148</v>
+      </c>
+      <c r="G148" t="s">
+        <v>838</v>
+      </c>
+      <c r="H148" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E164</v>
+      </c>
+      <c r="I148" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="D149" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F149" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000149</v>
+      </c>
+      <c r="G149" t="s">
+        <v>838</v>
+      </c>
+      <c r="H149" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>0101000E93</v>
+      </c>
+      <c r="I149" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D150" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F150" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000150</v>
+      </c>
+      <c r="G150" t="s">
+        <v>838</v>
+      </c>
+      <c r="H150" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E154</v>
+      </c>
+      <c r="I150" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D151" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F151" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000151</v>
+      </c>
+      <c r="G151" t="s">
+        <v>838</v>
+      </c>
+      <c r="H151" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E157</v>
+      </c>
+      <c r="I151" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D152" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F152" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000152</v>
+      </c>
+      <c r="G152" t="s">
+        <v>838</v>
+      </c>
+      <c r="H152" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E162</v>
+      </c>
+      <c r="I152" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D153" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F153" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000153</v>
+      </c>
+      <c r="G153" t="s">
+        <v>838</v>
+      </c>
+      <c r="H153" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E177</v>
+      </c>
+      <c r="I153" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D154" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F154" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000154</v>
+      </c>
+      <c r="G154" t="s">
+        <v>838</v>
+      </c>
+      <c r="H154" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E170</v>
+      </c>
+      <c r="I154" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D155" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F155" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000155</v>
+      </c>
+      <c r="G155" t="s">
+        <v>838</v>
+      </c>
+      <c r="H155" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E180</v>
+      </c>
+      <c r="I155" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D156" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F156" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000156</v>
+      </c>
+      <c r="G156" t="s">
+        <v>838</v>
+      </c>
+      <c r="H156" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E159</v>
+      </c>
+      <c r="I156" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D157" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F157" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000157</v>
+      </c>
+      <c r="G157" t="s">
+        <v>838</v>
+      </c>
+      <c r="H157" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E176</v>
+      </c>
+      <c r="I157" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D158" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F158" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000158</v>
+      </c>
+      <c r="G158" t="s">
+        <v>838</v>
+      </c>
+      <c r="H158" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E133</v>
+      </c>
+      <c r="I158" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D159" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F159" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000159</v>
+      </c>
+      <c r="G159" t="s">
+        <v>838</v>
+      </c>
+      <c r="H159" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E184</v>
+      </c>
+      <c r="I159" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D160" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F160" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000160</v>
+      </c>
+      <c r="G160" t="s">
+        <v>838</v>
+      </c>
+      <c r="H160" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E178</v>
+      </c>
+      <c r="I160" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D161" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F161" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000161</v>
+      </c>
+      <c r="G161" t="s">
+        <v>838</v>
+      </c>
+      <c r="H161" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E187</v>
+      </c>
+      <c r="I161" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D162" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F162" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000162</v>
+      </c>
+      <c r="G162" t="s">
+        <v>838</v>
+      </c>
+      <c r="H162" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E172</v>
+      </c>
+      <c r="I162" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D163" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F163" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000163</v>
+      </c>
+      <c r="G163" t="s">
+        <v>838</v>
+      </c>
+      <c r="H163" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E206</v>
+      </c>
+      <c r="I163" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D164" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F164" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000164</v>
+      </c>
+      <c r="G164" t="s">
+        <v>838</v>
+      </c>
+      <c r="H164" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E195</v>
+      </c>
+      <c r="I164" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="D165" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F165" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000165</v>
+      </c>
+      <c r="G165" t="s">
+        <v>838</v>
+      </c>
+      <c r="H165" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E181</v>
+      </c>
+      <c r="I165" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="D166" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F166" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000166</v>
+      </c>
+      <c r="G166" t="s">
+        <v>838</v>
+      </c>
+      <c r="H166" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E173</v>
+      </c>
+      <c r="I166" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="D167" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F167" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000167</v>
+      </c>
+      <c r="G167" t="s">
+        <v>838</v>
+      </c>
+      <c r="H167" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E188</v>
+      </c>
+      <c r="I167" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="D168" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F168" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000168</v>
+      </c>
+      <c r="G168" t="s">
+        <v>838</v>
+      </c>
+      <c r="H168" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E175</v>
+      </c>
+      <c r="I168" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D169" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F169" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000169</v>
+      </c>
+      <c r="G169" t="s">
+        <v>838</v>
+      </c>
+      <c r="H169" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E179</v>
+      </c>
+      <c r="I169" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D170" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F170" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000170</v>
+      </c>
+      <c r="G170" t="s">
+        <v>838</v>
+      </c>
+      <c r="H170" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E156</v>
+      </c>
+      <c r="I170" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="D171" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F171" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000171</v>
+      </c>
+      <c r="G171" t="s">
+        <v>838</v>
+      </c>
+      <c r="H171" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E200</v>
+      </c>
+      <c r="I171" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D172" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F172" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000172</v>
+      </c>
+      <c r="G172" t="s">
+        <v>838</v>
+      </c>
+      <c r="H172" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E202</v>
+      </c>
+      <c r="I172" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D173" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F173" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000173</v>
+      </c>
+      <c r="G173" t="s">
+        <v>838</v>
+      </c>
+      <c r="H173" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E193</v>
+      </c>
+      <c r="I173" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D174" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F174" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000174</v>
+      </c>
+      <c r="G174" t="s">
+        <v>838</v>
+      </c>
+      <c r="H174" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E185</v>
+      </c>
+      <c r="I174" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D175" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F175" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000175</v>
+      </c>
+      <c r="G175" t="s">
+        <v>838</v>
+      </c>
+      <c r="H175" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E192</v>
+      </c>
+      <c r="I175" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D176" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F176" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000176</v>
+      </c>
+      <c r="G176" t="s">
+        <v>838</v>
+      </c>
+      <c r="H176" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010S150151</v>
+      </c>
+      <c r="I176" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D177" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F177" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000177</v>
+      </c>
+      <c r="G177" t="s">
+        <v>838</v>
+      </c>
+      <c r="H177" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E197</v>
+      </c>
+      <c r="I177" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D178" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F178" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>0101000178</v>
+      </c>
+      <c r="G178" t="s">
+        <v>838</v>
+      </c>
+      <c r="H178" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010100E210</v>
+      </c>
+      <c r="I178" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="D179" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F179" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>01EC000001</v>
+      </c>
+      <c r="G179" t="s">
+        <v>838</v>
+      </c>
+      <c r="H179" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010CONSULT</v>
+      </c>
+      <c r="I179" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="D180" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F180" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>01EG000001</v>
+      </c>
+      <c r="G180" t="s">
+        <v>838</v>
+      </c>
+      <c r="H180" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010GERACAO</v>
+      </c>
+      <c r="I180" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="D181" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F181" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>01EP000001</v>
+      </c>
+      <c r="G181" t="s">
+        <v>838</v>
+      </c>
+      <c r="H181" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>010PRIVATE</v>
+      </c>
+      <c r="I181" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="D182" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F182" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>01ET000001</v>
+      </c>
+      <c r="G182" t="s">
+        <v>838</v>
+      </c>
+      <c r="H182" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>0101GESTAO</v>
+      </c>
+      <c r="I182" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="D183" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F183" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>01MM000001</v>
+      </c>
+      <c r="G183" t="s">
+        <v>838</v>
+      </c>
+      <c r="H183" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>0101000MMD</v>
+      </c>
+      <c r="I183" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="D184" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO FILS(M0_CODFIL, M0_NOVO) VALUES('</v>
+      </c>
+      <c r="F184" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>01PA000001</v>
+      </c>
+      <c r="G184" t="s">
+        <v>838</v>
+      </c>
+      <c r="H184" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>0101ECOPAR</v>
+      </c>
+      <c r="I184" t="s">
+        <v>839</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B51FBC-BCDE-4F33-ADF1-34BC35C38245}">
+  <dimension ref="A1:A181"/>
+  <sheetViews>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B184" sqref="B184"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>